--- a/biology/Botanique/Parc_de_la_Moutonnerie/Parc_de_la_Moutonnerie.xlsx
+++ b/biology/Botanique/Parc_de_la_Moutonnerie/Parc_de_la_Moutonnerie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de la Moutonnerie est un jardin paysager de la ville de Nantes. 
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé non loin de la gare SNCF, au cœur du quartier Malakoff - Saint-Donatien.
 </t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,9 +585,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc, initialement axé autour du thème des jeux de société, est ouvert en 1997, sur une zone inondable autrefois traversé par le ruisseau du « Gué Robert »[1]. Des jardins familiaux y sont adjoints[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc, initialement axé autour du thème des jeux de société, est ouvert en 1997, sur une zone inondable autrefois traversé par le ruisseau du « Gué Robert ». Des jardins familiaux y sont adjoints.
 </t>
         </is>
       </c>
@@ -600,9 +618,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ouvert au public il est d'une superficie de 1,57 ha[2]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ouvert au public il est d'une superficie de 1,57 ha. 
 </t>
         </is>
       </c>
@@ -631,9 +651,11 @@
           <t>Le parc de la Moutonnerie dans la culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc apparaît à de nombreuses reprises dans le livre enquête La Moindre des choses publié en 2014[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc apparaît à de nombreuses reprises dans le livre enquête La Moindre des choses publié en 2014.
 </t>
         </is>
       </c>
